--- a/biology/Botanique/Jardin_de_l'ancien_Alberga/Jardin_de_l'ancien_Alberga.xlsx
+++ b/biology/Botanique/Jardin_de_l'ancien_Alberga/Jardin_de_l'ancien_Alberga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27ancien_Alberga</t>
+          <t>Jardin_de_l'ancien_Alberga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de l'ancien Alberga (finnois : Vanhan Albergan puutarha) est un parc d'un hectare et demi du manoir d'Alberga situé dans le quartier de Leppävaara à Espoo en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27ancien_Alberga</t>
+          <t>Jardin_de_l'ancien_Alberga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vice-amiral Carl Tersmeden de la forteresse de Viapori a acheté la ferme Alberga à Espoo en 1751 et a rénové et agrandi le bâtiment principal, qui avait été construit à partir des années 1720 par le restaurateur Johan König.
 Carl Tersmeden a également aménagé le parc manoir à l'ouest du corps de logis avec un jardin baroque en terrasses.
@@ -521,7 +535,7 @@
 L'ancien bâtiment principal a été utilisé au fil du temps comme bâtiment résidentiel pour les employés et comme première école d'Alberga. Il a été démoli dans les années 1950 et à partir de 1960, l'école professionnelle de Leppävaara, aujourd'hui Omnia Leppävaara, y a été construite par étapes.
 En 2009, un projet de restauration du parc a été lancé et la rénovation du parc a commencé à partir de 2012.
 Du XVIIIe siècle, des structures murales en pierre et des bassins à poissons ont été préservés sur le site, et entre-autres, une tonnelle.
-On y trouve des tilleuls, qui ont été plantés dans les années 1830 et des chênes, qui ont été plantés dans les années 1870. Lors de la rénovation, des pommiers, des haies de lilas et des arbustes à baies, entre autres, ont été plantés[1],[2],[3].
+On y trouve des tilleuls, qui ont été plantés dans les années 1830 et des chênes, qui ont été plantés dans les années 1870. Lors de la rénovation, des pommiers, des haies de lilas et des arbustes à baies, entre autres, ont été plantés.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27ancien_Alberga</t>
+          <t>Jardin_de_l'ancien_Alberga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est a proximite du kehä I et de la Turunväylä.
 Les lignes de transport en commun suivantes passant à proximité du jardin sont les lignes de bus 200, 502, 550 et 553K et les trains L.
